--- a/evaluation/saq_eval.xlsx
+++ b/evaluation/saq_eval.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://entuedu-my.sharepoint.com/personal/wwong029_e_ntu_edu_sg/Documents/FYP/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="8_{F7750505-C97C-4190-9BF7-8DCFA256120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAE89ECE-70C3-4F1F-BB97-A0BE176A7093}"/>
+  <xr:revisionPtr revIDLastSave="231" documentId="8_{F7750505-C97C-4190-9BF7-8DCFA256120E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C12289EE-0ACC-4FD7-AE96-094A35EB4832}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{D27F9CB6-97F6-4AB1-8431-9AD28631C079}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{D27F9CB6-97F6-4AB1-8431-9AD28631C079}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -535,10 +535,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -860,23 +856,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CEEEB3-5848-4437-9D52-8C7C858DDEE8}">
   <dimension ref="A1:Q53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.42578125" customWidth="1"/>
-    <col min="5" max="5" width="46.42578125" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="16" max="16" width="38.28515625" customWidth="1"/>
-    <col min="17" max="17" width="156.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.453125" customWidth="1"/>
+    <col min="5" max="5" width="46.453125" customWidth="1"/>
+    <col min="6" max="6" width="12.81640625" customWidth="1"/>
+    <col min="10" max="10" width="34.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.26953125" customWidth="1"/>
+    <col min="17" max="17" width="156.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -900,7 +897,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -920,7 +917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -958,7 +955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -999,7 +996,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1040,7 +1037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1081,7 +1078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1122,7 +1119,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1163,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1204,7 +1201,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1239,7 +1236,7 @@
         <v>0.96078431372549022</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1259,7 +1256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1282,7 +1279,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1302,7 +1299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1322,7 +1319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1342,7 +1339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1365,7 +1362,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1385,7 +1382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1405,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1425,7 +1422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1445,7 +1442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1465,7 +1462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1485,7 +1482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1505,7 +1502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1525,7 +1522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1545,7 +1542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1565,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1585,7 +1582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1605,7 +1602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1625,7 +1622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1645,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1665,7 +1662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1685,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1705,7 +1702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1725,7 +1722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1745,7 +1742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1765,7 +1762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1785,7 +1782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1805,7 +1802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1825,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1845,7 +1842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1865,7 +1862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1885,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1905,7 +1902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1925,7 +1922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1945,7 +1942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1965,7 +1962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1985,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2005,7 +2002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2025,7 +2022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2045,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2065,7 +2062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2085,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
